--- a/20240710_quadratic_r2.xlsx
+++ b/20240710_quadratic_r2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaden/Documents/KimLab_CSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48217F2F-7583-2145-A91E-53974A4E5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AB753-21DE-0240-A2A4-8ADF821BA9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,20 +211,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -242,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,17 +237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -270,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,21 +270,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -324,29 +285,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -719,13 +674,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -803,7 +764,7 @@
       <c r="L2">
         <v>0.35910135426236089</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <v>0.96541235865249619</v>
       </c>
       <c r="N2" s="2">
@@ -841,7 +802,7 @@
       <c r="K3">
         <v>2.1852381305938921E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3">
         <v>0.9769351551516694</v>
       </c>
       <c r="M3">
@@ -870,7 +831,7 @@
       <c r="G4">
         <v>0.33354905554209718</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.89432446493647166</v>
       </c>
       <c r="I4">
@@ -879,7 +840,7 @@
       <c r="J4">
         <v>0.76576604323529263</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>0.90224740169988826</v>
       </c>
       <c r="L4">
@@ -888,11 +849,11 @@
       <c r="M4">
         <v>0.72762484518108927</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <v>0.88538663896091796</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -905,7 +866,7 @@
       <c r="D5">
         <v>0.14866148650217231</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.9189539173724447</v>
       </c>
       <c r="G5">
@@ -933,7 +894,7 @@
         <v>0.1625872432577157</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,7 +907,7 @@
       <c r="D6">
         <v>0.17032273530121789</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>0.91919822420364083</v>
       </c>
       <c r="G6">
@@ -1025,7 +986,7 @@
       <c r="C8">
         <v>1.6425551875005832E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.89918369646211294</v>
       </c>
       <c r="E8">
@@ -1043,7 +1004,7 @@
       <c r="J8">
         <v>0.63332921718823521</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>0.99400229508338045</v>
       </c>
       <c r="L8">
@@ -1056,7 +1017,7 @@
         <v>0.71217676175008482</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1042,7 @@
       <c r="H9">
         <v>0.68697808544284644</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>0.9932327200832971</v>
       </c>
       <c r="K9">
@@ -1097,7 +1058,7 @@
         <v>0.83570475856951731</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1083,7 @@
       <c r="H10">
         <v>0.67864088105960596</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>0.99323228999290314</v>
       </c>
       <c r="K10">
@@ -1148,7 +1109,7 @@
       <c r="C11">
         <v>2.2467795828693848E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>0.90624335509159459</v>
       </c>
       <c r="E11">
@@ -1160,7 +1121,7 @@
       <c r="G11">
         <v>0.2979719549380303</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>0.9939971359960309</v>
       </c>
       <c r="I11">
@@ -1179,14 +1140,14 @@
         <v>0.73887661628273138</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.35664455006930951</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>0.97748524355984379</v>
       </c>
       <c r="D12">
@@ -1220,11 +1181,11 @@
         <v>6.192020004068155E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>0.9651116890078234</v>
       </c>
       <c r="C13">
@@ -1271,7 +1232,7 @@
       <c r="C14">
         <v>5.9243703821546763E-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>0.91587336094729754</v>
       </c>
       <c r="E14">

--- a/20240710_quadratic_r2.xlsx
+++ b/20240710_quadratic_r2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaden/Documents/KimLab_CSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AB753-21DE-0240-A2A4-8ADF821BA9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50A1DE-6276-AF4A-B5CF-9342F02C549D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,21 +214,27 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +243,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,22 +296,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,7 +691,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,14 +780,14 @@
       <c r="L2">
         <v>0.35910135426236089</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>0.96541235865249619</v>
       </c>
       <c r="N2" s="2">
         <v>0.85267761204829484</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -802,7 +818,7 @@
       <c r="K3">
         <v>2.1852381305938921E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.9769351551516694</v>
       </c>
       <c r="M3">
@@ -831,7 +847,7 @@
       <c r="G4">
         <v>0.33354905554209718</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>0.89432446493647166</v>
       </c>
       <c r="I4">
@@ -840,7 +856,7 @@
       <c r="J4">
         <v>0.76576604323529263</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <v>0.90224740169988826</v>
       </c>
       <c r="L4">
@@ -849,11 +865,11 @@
       <c r="M4">
         <v>0.72762484518108927</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <v>0.88538663896091796</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -866,7 +882,7 @@
       <c r="D5">
         <v>0.14866148650217231</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.9189539173724447</v>
       </c>
       <c r="G5">
@@ -894,7 +910,7 @@
         <v>0.1625872432577157</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,7 +923,7 @@
       <c r="D6">
         <v>0.17032273530121789</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.91919822420364083</v>
       </c>
       <c r="G6">
@@ -935,7 +951,7 @@
         <v>0.17324310161732631</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +992,7 @@
         <v>0.41008369850174059</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1002,7 @@
       <c r="C8">
         <v>1.6425551875005832E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.89918369646211294</v>
       </c>
       <c r="E8">
@@ -1004,7 +1020,7 @@
       <c r="J8">
         <v>0.63332921718823521</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>0.99400229508338045</v>
       </c>
       <c r="L8">
@@ -1017,7 +1033,7 @@
         <v>0.71217676175008482</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1058,7 @@
       <c r="H9">
         <v>0.68697808544284644</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.9932327200832971</v>
       </c>
       <c r="K9">
@@ -1058,7 +1074,7 @@
         <v>0.83570475856951731</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1099,7 @@
       <c r="H10">
         <v>0.67864088105960596</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.99323228999290314</v>
       </c>
       <c r="K10">
@@ -1109,7 +1125,7 @@
       <c r="C11">
         <v>2.2467795828693848E-2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>0.90624335509159459</v>
       </c>
       <c r="E11">
@@ -1121,7 +1137,7 @@
       <c r="G11">
         <v>0.2979719549380303</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.9939971359960309</v>
       </c>
       <c r="I11">
@@ -1140,14 +1156,14 @@
         <v>0.73887661628273138</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0.35664455006930951</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.97748524355984379</v>
       </c>
       <c r="D12">
@@ -1181,11 +1197,11 @@
         <v>6.192020004068155E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>0.9651116890078234</v>
       </c>
       <c r="C13">
@@ -1232,7 +1248,7 @@
       <c r="C14">
         <v>5.9243703821546763E-2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>0.91587336094729754</v>
       </c>
       <c r="E14">
